--- a/data/trans_bre/P16A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.2792695158847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.519034340050172</v>
+        <v>7.519034340050175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7029725213806227</v>
@@ -649,7 +649,7 @@
         <v>2.276913788541449</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7392335819938388</v>
+        <v>0.7392335819938392</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.180267257390999</v>
+        <v>1.081169565158809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.322364190800682</v>
+        <v>6.263020680118392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.768362519815911</v>
+        <v>8.798633316038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.484407760132708</v>
+        <v>4.288390245070032</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1495109292891804</v>
+        <v>0.1435716226365715</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7973267104185388</v>
+        <v>0.7686059593524396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.277778581138776</v>
+        <v>1.308588914951008</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3724836457912775</v>
+        <v>0.3596681939431269</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.600062141049444</v>
+        <v>6.518300318921379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.82209562992619</v>
+        <v>13.01716399098564</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.79350992074268</v>
+        <v>15.94309626734047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.46833464786588</v>
+        <v>10.5352750372901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.547280360142907</v>
+        <v>1.411196954203347</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.493379864054142</v>
+        <v>2.568164713737232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.849432484547037</v>
+        <v>3.950509771857325</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.221252915971993</v>
+        <v>1.236668934676148</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.086872766625561</v>
+        <v>4.003302093901031</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.833184450410196</v>
+        <v>5.744725996299986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.369146818725229</v>
+        <v>5.084716341539253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.435404236531545</v>
+        <v>8.682300283523594</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6154935887147893</v>
+        <v>0.6427684892698827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7110799185082821</v>
+        <v>0.6909159557472008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7535842263893179</v>
+        <v>0.7307965796682746</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.9942638878230917</v>
+        <v>1.094315081072412</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.995004188589892</v>
+        <v>9.08566915378047</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.55184099733673</v>
+        <v>11.57267468297466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.47334585248618</v>
+        <v>10.58891009015428</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.46830274692452</v>
+        <v>13.47888387309813</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.227712520078928</v>
+        <v>2.37077002647184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.972163623690767</v>
+        <v>2.063131429499535</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.173343602686195</v>
+        <v>2.249334206730562</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.412191286171944</v>
+        <v>2.467753411255126</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.702968977184242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.949434329031423</v>
+        <v>6.949434329031422</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.853296726100185</v>
@@ -849,7 +849,7 @@
         <v>1.239350340051883</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8110641018340787</v>
+        <v>0.8110641018340785</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.189464003561116</v>
+        <v>5.106595454071686</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.174976409487068</v>
+        <v>6.216746892876096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.733291412474631</v>
+        <v>4.789973338217422</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.895120781904233</v>
+        <v>4.01025532580491</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9280655120100539</v>
+        <v>0.9764575480215499</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7953886289951136</v>
+        <v>0.8826385455727561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6116715571274544</v>
+        <v>0.6149059426678959</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3768928343625259</v>
+        <v>0.4006653388792067</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.69319266221379</v>
+        <v>10.76505100499357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.85657884845891</v>
+        <v>13.11783539398612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.78316227356017</v>
+        <v>10.96923895439516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.837477745456535</v>
+        <v>9.920102637211839</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.405438596237873</v>
+        <v>3.342437949569598</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.080312781465668</v>
+        <v>3.384145383078218</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.161585188074346</v>
+        <v>2.127464452071785</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.392927606470976</v>
+        <v>1.449873790153587</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.874654315430874</v>
+        <v>4.059609139616818</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.354135863053424</v>
+        <v>5.379507101972427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.603530824247489</v>
+        <v>5.445404435505933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.987311614014269</v>
+        <v>6.127173396223016</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6356746555338536</v>
+        <v>0.6432133048573243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5772118313155197</v>
+        <v>0.5787882149085904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5890690747014196</v>
+        <v>0.6105284398079195</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5254482165224768</v>
+        <v>0.5580887329819069</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.674092510015155</v>
+        <v>8.784273036875057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.13221360517497</v>
+        <v>11.42652923097002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.25955778489355</v>
+        <v>11.74419970188701</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.64748386332498</v>
+        <v>11.81160121895799</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.134704351630628</v>
+        <v>2.167198840180716</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.766062366668723</v>
+        <v>1.800240813281631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.739073871898919</v>
+        <v>1.812352827108205</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.378983208249002</v>
+        <v>1.439945771307518</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.921381333323369</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.817744662300839</v>
+        <v>8.817744662300843</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.268962804296511</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.987055860302084</v>
+        <v>4.940478127292662</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.409274088596036</v>
+        <v>7.448440019969903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.407966029769426</v>
+        <v>7.435762858148405</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.436472306410755</v>
+        <v>7.535684863776313</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8916595422727565</v>
+        <v>0.9124182974502932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.006275807796366</v>
+        <v>1.024902312618714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.05853898444035</v>
+        <v>1.080235980882225</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7996003587600375</v>
+        <v>0.8031433541270239</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.545783346431077</v>
+        <v>7.573051846059377</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.48717958776006</v>
+        <v>10.43560083564716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.44457757383213</v>
+        <v>10.55114351176919</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.21954977345263</v>
+        <v>10.22658361393211</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.741492017328536</v>
+        <v>1.707777203923324</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.731816745701888</v>
+        <v>1.773531975133879</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.8067009427539</v>
+        <v>1.871467612182101</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.289949277442118</v>
+        <v>1.297709027208069</v>
       </c>
     </row>
     <row r="19">
